--- a/programming tools/i18n.xlsx
+++ b/programming tools/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FMCL-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\python\FMCL\programming tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF8E07-FF63-42EA-AE87-54AB262D6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B1639-8D13-47F7-B8E5-29474DA9C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Namespace" sheetId="1" r:id="rId1"/>
@@ -718,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>after=import FMCLCore.system.CoreConfigIO as config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Download\nThreads\n(o=Single)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1863,6 +1859,10 @@
   </si>
   <si>
     <t>登錄超時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after=import core.local.config as config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1873,7 +1873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2345,18 +2345,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="50.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="1" max="4" width="50.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2364,33 +2364,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -2404,10 +2404,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2421,10 +2421,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2435,10 +2435,10 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -2449,10 +2449,10 @@
         <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2463,10 +2463,10 @@
         <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
@@ -2477,38 +2477,38 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -2520,10 +2520,10 @@
         <v>43</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
@@ -2535,138 +2535,138 @@
         <v>91</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="27">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="27">
+    </row>
+    <row r="22" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
@@ -2677,10 +2677,10 @@
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="27">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
@@ -2691,10 +2691,10 @@
         <v>58</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
@@ -2705,10 +2705,10 @@
         <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="40.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>89</v>
       </c>
@@ -2719,108 +2719,108 @@
         <v>92</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="16.5">
-      <c r="B26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="27">
+    <row r="27" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="16.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="16.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>83</v>
       </c>
@@ -2831,217 +2831,217 @@
         <v>85</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="27">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="16.5">
-      <c r="B36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="16.5">
+    <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="16.5">
-      <c r="B41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="11" t="s">
+    <row r="43" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" ht="27">
-      <c r="B42" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="40.5">
-      <c r="B43" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="17.25">
-      <c r="B44" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="17.25">
-      <c r="B45" s="14" t="s">
+    <row r="46" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="17.25">
-      <c r="B46" s="14" t="s">
+    <row r="47" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="17.25">
-      <c r="B47" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3062,49 +3062,49 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
